--- a/quadre/Input_vasca_Z.xlsx
+++ b/quadre/Input_vasca_Z.xlsx
@@ -319,9 +319,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Nome </t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>cerchiatura in y [m]</t>
   </si>
   <si>
-    <t>densità liquido [kg/m3]</t>
-  </si>
-  <si>
     <t>posizioni aggiuntive in x [m]</t>
   </si>
   <si>
@@ -392,6 +386,12 @@
   </si>
   <si>
     <t>0,15-0,45</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>densita liquido [kg/m3]</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,72 +881,72 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1.46</v>
@@ -973,7 +973,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3">
         <v>0.5</v>
@@ -988,10 +988,10 @@
         <v>1700</v>
       </c>
       <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
         <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
       </c>
       <c r="S2">
         <v>0.1</v>

--- a/quadre/Input_vasca_Z.xlsx
+++ b/quadre/Input_vasca_Z.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11676" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="dati_vasca" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>dimensione target mesh z [m]</t>
   </si>
   <si>
-    <t>0,3-0,5</t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>densita liquido [kg/m3]</t>
+  </si>
+  <si>
+    <t>0.3-0.5</t>
   </si>
 </sst>
 </file>
@@ -855,33 +855,33 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" customWidth="1"/>
+    <col min="18" max="18" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>14</v>
@@ -944,7 +944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -973,7 +973,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3">
         <v>0.5</v>
@@ -988,10 +988,10 @@
         <v>1700</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S2">
         <v>0.1</v>
@@ -1003,24 +1003,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M5" s="3"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M6" s="3"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M7" s="3"/>
       <c r="O7" s="2"/>
     </row>
